--- a/genshin/434757214135553977_2020-09-14_14-00-02.xlsx
+++ b/genshin/434757214135553977_2020-09-14_14-00-02.xlsx
@@ -16,7 +16,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+  </numFmts>
   <fonts count="1">
     <font>
       <name val="Calibri"/>
@@ -46,8 +48,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -419,6 +422,19 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="12" customWidth="1" min="1" max="1"/>
+    <col width="12" customWidth="1" min="2" max="2"/>
+    <col width="12" customWidth="1" min="3" max="3"/>
+    <col width="50" customWidth="1" min="5" max="5"/>
+    <col width="12" customWidth="1" min="7" max="7"/>
+    <col width="20" customWidth="1" min="8" max="8"/>
+    <col width="12" customWidth="1" min="11" max="11"/>
+    <col width="12" customWidth="1" min="13" max="13"/>
+    <col width="12" customWidth="1" min="15" max="15"/>
+    <col width="20" customWidth="1" min="16" max="16"/>
+    <col width="20" customWidth="1" min="17" max="17"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
@@ -539,10 +555,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2020-12-12 02:40:19</t>
-        </is>
+      <c r="H2" s="1" t="n">
+        <v>44177.11133101852</v>
       </c>
       <c r="I2" t="n">
         <v>1</v>
@@ -618,10 +632,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>2020-09-18 01:04:40</t>
-        </is>
+      <c r="H3" s="1" t="n">
+        <v>44092.04490740741</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -685,10 +697,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>2020-09-16 21:16:36</t>
-        </is>
+      <c r="H4" s="1" t="n">
+        <v>44090.88652777778</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -764,10 +774,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>2020-09-16 17:57:47</t>
-        </is>
+      <c r="H5" s="1" t="n">
+        <v>44090.74846064814</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -831,10 +839,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>2020-09-15 21:26:41</t>
-        </is>
+      <c r="H6" s="1" t="n">
+        <v>44089.8935300926</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -898,10 +904,8 @@
           <t>3493719129</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>2020-09-15 08:12:03</t>
-        </is>
+      <c r="H7" s="1" t="n">
+        <v>44089.34170138889</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -969,10 +973,8 @@
           <t>3493269146</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>2020-09-15 01:00:01</t>
-        </is>
+      <c r="H8" s="1" t="n">
+        <v>44089.04167824074</v>
       </c>
       <c r="I8" t="n">
         <v>1</v>
@@ -1036,10 +1038,8 @@
           <t>3493269146</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>2020-09-15 00:45:36</t>
-        </is>
+      <c r="H9" s="1" t="n">
+        <v>44089.03166666667</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1103,10 +1103,8 @@
           <t>3493269146</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>2020-09-15 00:32:13</t>
-        </is>
+      <c r="H10" s="1" t="n">
+        <v>44089.02237268518</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1174,10 +1172,8 @@
           <t>3493269146</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>2020-09-15 00:17:39</t>
-        </is>
+      <c r="H11" s="1" t="n">
+        <v>44089.01225694444</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1241,10 +1237,8 @@
           <t>3491368115</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>2020-09-14 22:04:50</t>
-        </is>
+      <c r="H12" s="1" t="n">
+        <v>44088.92002314814</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1320,10 +1314,8 @@
           <t>3492758875</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>2020-09-14 22:04:06</t>
-        </is>
+      <c r="H13" s="1" t="n">
+        <v>44088.91951388889</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1399,10 +1391,8 @@
           <t>3492663837</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>2020-09-14 21:56:51</t>
-        </is>
+      <c r="H14" s="1" t="n">
+        <v>44088.91447916667</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1470,10 +1460,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>2020-09-14 21:48:59</t>
-        </is>
+      <c r="H15" s="1" t="n">
+        <v>44088.9090162037</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1533,10 +1521,8 @@
           <t>3492663837</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>2020-09-14 21:39:34</t>
-        </is>
+      <c r="H16" s="1" t="n">
+        <v>44088.90247685185</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1600,10 +1586,8 @@
           <t>3491410942</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>2020-09-14 21:02:11</t>
-        </is>
+      <c r="H17" s="1" t="n">
+        <v>44088.8765162037</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1675,10 +1659,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>2020-09-14 21:01:55</t>
-        </is>
+      <c r="H18" s="1" t="n">
+        <v>44088.87633101852</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1750,10 +1732,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>2020-09-14 19:40:07</t>
-        </is>
+      <c r="H19" s="1" t="n">
+        <v>44088.81952546296</v>
       </c>
       <c r="I19" t="n">
         <v>1</v>
@@ -1821,10 +1801,8 @@
           <t>3491850472</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>2020-09-14 19:16:04</t>
-        </is>
+      <c r="H20" s="1" t="n">
+        <v>44088.80282407408</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -1900,10 +1878,8 @@
           <t>3492123329</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>2020-09-14 19:09:11</t>
-        </is>
+      <c r="H21" s="1" t="n">
+        <v>44088.79804398148</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -1971,10 +1947,8 @@
           <t>3492121292</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>2020-09-14 19:07:34</t>
-        </is>
+      <c r="H22" s="1" t="n">
+        <v>44088.7969212963</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2042,10 +2016,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>2020-09-14 18:57:44</t>
-        </is>
+      <c r="H23" s="1" t="n">
+        <v>44088.79009259259</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2113,10 +2085,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>2020-09-14 18:56:56</t>
-        </is>
+      <c r="H24" s="1" t="n">
+        <v>44088.78953703704</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2180,10 +2150,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>2020-09-14 18:50:54</t>
-        </is>
+      <c r="H25" s="1" t="n">
+        <v>44088.78534722222</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2255,10 +2223,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>2020-09-14 18:49:31</t>
-        </is>
+      <c r="H26" s="1" t="n">
+        <v>44088.78438657407</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2322,10 +2288,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>2020-09-14 18:41:14</t>
-        </is>
+      <c r="H27" s="1" t="n">
+        <v>44088.77863425926</v>
       </c>
       <c r="I27" t="n">
         <v>2</v>
@@ -2397,10 +2361,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>2020-09-14 18:27:04</t>
-        </is>
+      <c r="H28" s="1" t="n">
+        <v>44088.7687962963</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2468,10 +2430,8 @@
           <t>3491912969</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>2020-09-14 18:25:17</t>
-        </is>
+      <c r="H29" s="1" t="n">
+        <v>44088.76755787037</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2543,10 +2503,8 @@
           <t>3491448734</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>2020-09-14 18:21:46</t>
-        </is>
+      <c r="H30" s="1" t="n">
+        <v>44088.76511574074</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2614,10 +2572,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>2020-09-14 18:16:46</t>
-        </is>
+      <c r="H31" s="1" t="n">
+        <v>44088.76164351852</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2690,10 +2646,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>2020-09-14 18:13:59</t>
-        </is>
+      <c r="H32" s="1" t="n">
+        <v>44088.75971064815</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -2757,10 +2711,8 @@
           <t>3491922451</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>2020-09-14 18:12:34</t>
-        </is>
+      <c r="H33" s="1" t="n">
+        <v>44088.75872685185</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -2828,10 +2780,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>2020-09-14 18:11:13</t>
-        </is>
+      <c r="H34" s="1" t="n">
+        <v>44088.75778935185</v>
       </c>
       <c r="I34" t="n">
         <v>16</v>
@@ -2903,10 +2853,8 @@
           <t>3491912969</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>2020-09-14 18:10:35</t>
-        </is>
+      <c r="H35" s="1" t="n">
+        <v>44088.75734953704</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -2978,10 +2926,8 @@
           <t>3491398072</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>2020-09-14 17:58:58</t>
-        </is>
+      <c r="H36" s="1" t="n">
+        <v>44088.74928240741</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3052,10 +2998,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>2020-09-14 17:54:44</t>
-        </is>
+      <c r="H37" s="1" t="n">
+        <v>44088.7463425926</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3131,10 +3075,8 @@
           <t>3491850472</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>2020-09-14 17:49:43</t>
-        </is>
+      <c r="H38" s="1" t="n">
+        <v>44088.74285879629</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3202,10 +3144,8 @@
           <t>3491814170</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>2020-09-14 17:40:01</t>
-        </is>
+      <c r="H39" s="1" t="n">
+        <v>44088.73612268519</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3273,10 +3213,8 @@
           <t>3491813924</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>2020-09-14 17:39:46</t>
-        </is>
+      <c r="H40" s="1" t="n">
+        <v>44088.73594907407</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3344,10 +3282,8 @@
           <t>3491808693</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>2020-09-14 17:37:28</t>
-        </is>
+      <c r="H41" s="1" t="n">
+        <v>44088.73435185185</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3411,10 +3347,8 @@
           <t>3491324663</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>2020-09-14 17:36:40</t>
-        </is>
+      <c r="H42" s="1" t="n">
+        <v>44088.7337962963</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3478,10 +3412,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>2020-09-14 17:30:38</t>
-        </is>
+      <c r="H43" s="1" t="n">
+        <v>44088.72960648148</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3557,10 +3489,8 @@
           <t>3491748776</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>2020-09-14 17:15:23</t>
-        </is>
+      <c r="H44" s="1" t="n">
+        <v>44088.7190162037</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -3624,10 +3554,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>2020-09-14 17:14:56</t>
-        </is>
+      <c r="H45" s="1" t="n">
+        <v>44088.7187037037</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -3699,10 +3627,8 @@
           <t>3491734997</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>2020-09-14 17:11:08</t>
-        </is>
+      <c r="H46" s="1" t="n">
+        <v>44088.71606481481</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -3766,10 +3692,8 @@
           <t>3491709146</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>2020-09-14 17:01:33</t>
-        </is>
+      <c r="H47" s="1" t="n">
+        <v>44088.70940972222</v>
       </c>
       <c r="I47" t="n">
         <v>1</v>
@@ -3841,10 +3765,8 @@
           <t>3491693525</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>2020-09-14 16:54:47</t>
-        </is>
+      <c r="H48" s="1" t="n">
+        <v>44088.70471064815</v>
       </c>
       <c r="I48" t="n">
         <v>1</v>
@@ -3908,10 +3830,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>2020-09-14 16:51:41</t>
-        </is>
+      <c r="H49" s="1" t="n">
+        <v>44088.70255787037</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
@@ -3979,10 +3899,8 @@
           <t>3491487669</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>2020-09-14 16:47:21</t>
-        </is>
+      <c r="H50" s="1" t="n">
+        <v>44088.69954861111</v>
       </c>
       <c r="I50" t="n">
         <v>1</v>
@@ -4058,10 +3976,8 @@
           <t>3491672819</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>2020-09-14 16:43:29</t>
-        </is>
+      <c r="H51" s="1" t="n">
+        <v>44088.69686342592</v>
       </c>
       <c r="I51" t="n">
         <v>1</v>
@@ -4129,10 +4045,8 @@
           <t>3491487669</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>2020-09-14 16:36:04</t>
-        </is>
+      <c r="H52" s="1" t="n">
+        <v>44088.69171296297</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
@@ -4200,10 +4114,8 @@
           <t>3491455510</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>2020-09-14 16:33:46</t>
-        </is>
+      <c r="H53" s="1" t="n">
+        <v>44088.69011574074</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
@@ -4271,10 +4183,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>2020-09-14 16:29:04</t>
-        </is>
+      <c r="H54" s="1" t="n">
+        <v>44088.68685185185</v>
       </c>
       <c r="I54" t="n">
         <v>1</v>
@@ -4350,10 +4260,8 @@
           <t>3491368115</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>2020-09-14 16:27:06</t>
-        </is>
+      <c r="H55" s="1" t="n">
+        <v>44088.68548611111</v>
       </c>
       <c r="I55" t="n">
         <v>1</v>
@@ -4417,10 +4325,8 @@
           <t>3491623661</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>2020-09-14 16:24:38</t>
-        </is>
+      <c r="H56" s="1" t="n">
+        <v>44088.68377314815</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
@@ -4492,10 +4398,8 @@
           <t>3491465281</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>2020-09-14 16:24:11</t>
-        </is>
+      <c r="H57" s="1" t="n">
+        <v>44088.68346064815</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
@@ -4563,10 +4467,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>2020-09-14 16:24:01</t>
-        </is>
+      <c r="H58" s="1" t="n">
+        <v>44088.6833449074</v>
       </c>
       <c r="I58" t="n">
         <v>1</v>
@@ -4634,10 +4536,8 @@
           <t>3491368115</t>
         </is>
       </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>2020-09-14 16:23:43</t>
-        </is>
+      <c r="H59" s="1" t="n">
+        <v>44088.68313657407</v>
       </c>
       <c r="I59" t="n">
         <v>1</v>
@@ -4705,10 +4605,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>2020-09-14 16:17:26</t>
-        </is>
+      <c r="H60" s="1" t="n">
+        <v>44088.67877314815</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
@@ -4784,10 +4682,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>2020-09-14 16:15:56</t>
-        </is>
+      <c r="H61" s="1" t="n">
+        <v>44088.67773148148</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
@@ -4859,10 +4755,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>2020-09-14 16:07:10</t>
-        </is>
+      <c r="H62" s="1" t="n">
+        <v>44088.67164351852</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
@@ -4926,10 +4820,8 @@
           <t>3491574611</t>
         </is>
       </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>2020-09-14 16:04:39</t>
-        </is>
+      <c r="H63" s="1" t="n">
+        <v>44088.66989583334</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
@@ -5001,10 +4893,8 @@
           <t>3491371826</t>
         </is>
       </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>2020-09-14 16:02:45</t>
-        </is>
+      <c r="H64" s="1" t="n">
+        <v>44088.66857638889</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
@@ -5024,9 +4914,10 @@
           <t>男</t>
         </is>
       </c>
-      <c r="M64">
-        <f>w=fate真是赞呐</f>
-        <v/>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>=w=fate真是赞呐</t>
+        </is>
       </c>
       <c r="N64" t="n">
         <v>5</v>
@@ -5071,10 +4962,8 @@
           <t>3491398072</t>
         </is>
       </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>2020-09-14 16:02:07</t>
-        </is>
+      <c r="H65" s="1" t="n">
+        <v>44088.66813657407</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
@@ -5094,9 +4983,10 @@
           <t>男</t>
         </is>
       </c>
-      <c r="M65">
-        <f>w=fate真是赞呐</f>
-        <v/>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>=w=fate真是赞呐</t>
+        </is>
       </c>
       <c r="N65" t="n">
         <v>5</v>
@@ -5141,10 +5031,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>2020-09-14 15:58:12</t>
-        </is>
+      <c r="H66" s="1" t="n">
+        <v>44088.66541666666</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
@@ -5220,10 +5108,8 @@
           <t>3491567671</t>
         </is>
       </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>2020-09-14 15:57:38</t>
-        </is>
+      <c r="H67" s="1" t="n">
+        <v>44088.66502314815</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
@@ -5299,10 +5185,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>2020-09-14 15:53:14</t>
-        </is>
+      <c r="H68" s="1" t="n">
+        <v>44088.66196759259</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
@@ -5370,10 +5254,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>2020-09-14 15:50:48</t>
-        </is>
+      <c r="H69" s="1" t="n">
+        <v>44088.66027777778</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
@@ -5449,10 +5331,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>2020-09-14 15:49:43</t>
-        </is>
+      <c r="H70" s="1" t="n">
+        <v>44088.65952546296</v>
       </c>
       <c r="I70" t="n">
         <v>1</v>
@@ -5528,10 +5408,8 @@
           <t>3491542660</t>
         </is>
       </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>2020-09-14 15:48:30</t>
-        </is>
+      <c r="H71" s="1" t="n">
+        <v>44088.65868055556</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
@@ -5595,10 +5473,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>2020-09-14 15:35:57</t>
-        </is>
+      <c r="H72" s="1" t="n">
+        <v>44088.64996527778</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
@@ -5658,10 +5534,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>2020-09-14 15:35:35</t>
-        </is>
+      <c r="H73" s="1" t="n">
+        <v>44088.64971064815</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
@@ -5721,10 +5595,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>2020-09-14 15:28:09</t>
-        </is>
+      <c r="H74" s="1" t="n">
+        <v>44088.64454861111</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
@@ -5792,10 +5664,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>2020-09-14 15:26:19</t>
-        </is>
+      <c r="H75" s="1" t="n">
+        <v>44088.64327546296</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
@@ -5863,10 +5733,8 @@
           <t>3491482454</t>
         </is>
       </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>2020-09-14 15:22:22</t>
-        </is>
+      <c r="H76" s="1" t="n">
+        <v>44088.64053240741</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
@@ -5942,10 +5810,8 @@
           <t>3491487669</t>
         </is>
       </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>2020-09-14 15:20:48</t>
-        </is>
+      <c r="H77" s="1" t="n">
+        <v>44088.63944444444</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
@@ -6021,10 +5887,8 @@
           <t>3491483076</t>
         </is>
       </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>2020-09-14 15:20:23</t>
-        </is>
+      <c r="H78" s="1" t="n">
+        <v>44088.63915509259</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
@@ -6100,10 +5964,8 @@
           <t>3491482454</t>
         </is>
       </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>2020-09-14 15:19:27</t>
-        </is>
+      <c r="H79" s="1" t="n">
+        <v>44088.63850694444</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
@@ -6179,10 +6041,8 @@
           <t>3491457017</t>
         </is>
       </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>2020-09-14 15:19:17</t>
-        </is>
+      <c r="H80" s="1" t="n">
+        <v>44088.63839120371</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
@@ -6254,10 +6114,8 @@
           <t>3491321925</t>
         </is>
       </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>2020-09-14 15:17:49</t>
-        </is>
+      <c r="H81" s="1" t="n">
+        <v>44088.63737268518</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
@@ -6333,10 +6191,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>2020-09-14 15:17:46</t>
-        </is>
+      <c r="H82" s="1" t="n">
+        <v>44088.63733796297</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
@@ -6412,10 +6268,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>2020-09-14 15:16:47</t>
-        </is>
+      <c r="H83" s="1" t="n">
+        <v>44088.6366550926</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
@@ -6491,10 +6345,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>2020-09-14 15:16:33</t>
-        </is>
+      <c r="H84" s="1" t="n">
+        <v>44088.63649305556</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
@@ -6554,10 +6406,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>2020-09-14 15:13:37</t>
-        </is>
+      <c r="H85" s="1" t="n">
+        <v>44088.63445601852</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
@@ -6621,10 +6471,8 @@
           <t>3491465281</t>
         </is>
       </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>2020-09-14 15:09:13</t>
-        </is>
+      <c r="H86" s="1" t="n">
+        <v>44088.63140046296</v>
       </c>
       <c r="I86" t="n">
         <v>2</v>
@@ -6692,10 +6540,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>2020-09-14 15:08:25</t>
-        </is>
+      <c r="H87" s="1" t="n">
+        <v>44088.63084490741</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
@@ -6767,10 +6613,8 @@
           <t>3491457017</t>
         </is>
       </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>2020-09-14 15:05:34</t>
-        </is>
+      <c r="H88" s="1" t="n">
+        <v>44088.62886574074</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
@@ -6846,10 +6690,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>2020-09-14 15:04:14</t>
-        </is>
+      <c r="H89" s="1" t="n">
+        <v>44088.62793981482</v>
       </c>
       <c r="I89" t="n">
         <v>1</v>
@@ -6921,10 +6763,8 @@
           <t>3491455510</t>
         </is>
       </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>2020-09-14 15:03:29</t>
-        </is>
+      <c r="H90" s="1" t="n">
+        <v>44088.62741898148</v>
       </c>
       <c r="I90" t="n">
         <v>1</v>
@@ -6992,10 +6832,8 @@
           <t>3491448734</t>
         </is>
       </c>
-      <c r="H91" t="inlineStr">
-        <is>
-          <t>2020-09-14 15:03:12</t>
-        </is>
+      <c r="H91" s="1" t="n">
+        <v>44088.62722222223</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
@@ -7067,10 +6905,8 @@
           <t>3491368115</t>
         </is>
       </c>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>2020-09-14 15:02:31</t>
-        </is>
+      <c r="H92" s="1" t="n">
+        <v>44088.62674768519</v>
       </c>
       <c r="I92" t="n">
         <v>1</v>
@@ -7143,10 +6979,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>2020-09-14 14:57:27</t>
-        </is>
+      <c r="H93" s="1" t="n">
+        <v>44088.62322916667</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
@@ -7214,10 +7048,8 @@
           <t>3491419611</t>
         </is>
       </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>2020-09-14 14:50:04</t>
-        </is>
+      <c r="H94" s="1" t="n">
+        <v>44088.61810185185</v>
       </c>
       <c r="I94" t="n">
         <v>0</v>
@@ -7281,10 +7113,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t>2020-09-14 14:48:32</t>
-        </is>
+      <c r="H95" s="1" t="n">
+        <v>44088.61703703704</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
@@ -7348,10 +7178,8 @@
           <t>3491413300</t>
         </is>
       </c>
-      <c r="H96" t="inlineStr">
-        <is>
-          <t>2020-09-14 14:46:41</t>
-        </is>
+      <c r="H96" s="1" t="n">
+        <v>44088.61575231481</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
@@ -7419,10 +7247,8 @@
           <t>3491410942</t>
         </is>
       </c>
-      <c r="H97" t="inlineStr">
-        <is>
-          <t>2020-09-14 14:43:23</t>
-        </is>
+      <c r="H97" s="1" t="n">
+        <v>44088.61346064815</v>
       </c>
       <c r="I97" t="n">
         <v>4</v>
@@ -7486,10 +7312,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H98" t="inlineStr">
-        <is>
-          <t>2020-09-14 14:42:10</t>
-        </is>
+      <c r="H98" s="1" t="n">
+        <v>44088.61261574074</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
@@ -7561,10 +7385,8 @@
           <t>3491324663</t>
         </is>
       </c>
-      <c r="H99" t="inlineStr">
-        <is>
-          <t>2020-09-14 14:41:22</t>
-        </is>
+      <c r="H99" s="1" t="n">
+        <v>44088.61206018519</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
@@ -7632,10 +7454,8 @@
           <t>3491398072</t>
         </is>
       </c>
-      <c r="H100" t="inlineStr">
-        <is>
-          <t>2020-09-14 14:41:04</t>
-        </is>
+      <c r="H100" s="1" t="n">
+        <v>44088.61185185185</v>
       </c>
       <c r="I100" t="n">
         <v>2</v>
@@ -7703,10 +7523,8 @@
           <t>3491369166</t>
         </is>
       </c>
-      <c r="H101" t="inlineStr">
-        <is>
-          <t>2020-09-14 14:39:29</t>
-        </is>
+      <c r="H101" s="1" t="n">
+        <v>44088.61075231482</v>
       </c>
       <c r="I101" t="n">
         <v>3</v>
@@ -7774,10 +7592,8 @@
           <t>3491398072</t>
         </is>
       </c>
-      <c r="H102" t="inlineStr">
-        <is>
-          <t>2020-09-14 14:39:22</t>
-        </is>
+      <c r="H102" s="1" t="n">
+        <v>44088.61067129629</v>
       </c>
       <c r="I102" t="n">
         <v>1</v>
@@ -7848,10 +7664,8 @@
           <t>3491383350</t>
         </is>
       </c>
-      <c r="H103" t="inlineStr">
-        <is>
-          <t>2020-09-14 14:32:45</t>
-        </is>
+      <c r="H103" s="1" t="n">
+        <v>44088.60607638889</v>
       </c>
       <c r="I103" t="n">
         <v>0</v>
@@ -7919,10 +7733,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H104" t="inlineStr">
-        <is>
-          <t>2020-09-14 14:32:33</t>
-        </is>
+      <c r="H104" s="1" t="n">
+        <v>44088.6059375</v>
       </c>
       <c r="I104" t="n">
         <v>1</v>
@@ -7999,10 +7811,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H105" t="inlineStr">
-        <is>
-          <t>2020-09-14 14:31:55</t>
-        </is>
+      <c r="H105" s="1" t="n">
+        <v>44088.60549768519</v>
       </c>
       <c r="I105" t="n">
         <v>0</v>
@@ -8070,10 +7880,8 @@
           <t>3491380958</t>
         </is>
       </c>
-      <c r="H106" t="inlineStr">
-        <is>
-          <t>2020-09-14 14:29:18</t>
-        </is>
+      <c r="H106" s="1" t="n">
+        <v>44088.60368055556</v>
       </c>
       <c r="I106" t="n">
         <v>10</v>
@@ -8145,10 +7953,8 @@
           <t>3491371826</t>
         </is>
       </c>
-      <c r="H107" t="inlineStr">
-        <is>
-          <t>2020-09-14 14:28:43</t>
-        </is>
+      <c r="H107" s="1" t="n">
+        <v>44088.60327546296</v>
       </c>
       <c r="I107" t="n">
         <v>4</v>
@@ -8216,10 +8022,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H108" t="inlineStr">
-        <is>
-          <t>2020-09-14 14:28:26</t>
-        </is>
+      <c r="H108" s="1" t="n">
+        <v>44088.6030787037</v>
       </c>
       <c r="I108" t="n">
         <v>1</v>
@@ -8291,10 +8095,8 @@
           <t>3491374359</t>
         </is>
       </c>
-      <c r="H109" t="inlineStr">
-        <is>
-          <t>2020-09-14 14:28:17</t>
-        </is>
+      <c r="H109" s="1" t="n">
+        <v>44088.60297453704</v>
       </c>
       <c r="I109" t="n">
         <v>2</v>
@@ -8366,10 +8168,8 @@
           <t>3491369166</t>
         </is>
       </c>
-      <c r="H110" t="inlineStr">
-        <is>
-          <t>2020-09-14 14:26:50</t>
-        </is>
+      <c r="H110" s="1" t="n">
+        <v>44088.60196759259</v>
       </c>
       <c r="I110" t="n">
         <v>3</v>
@@ -8441,10 +8241,8 @@
           <t>3491368115</t>
         </is>
       </c>
-      <c r="H111" t="inlineStr">
-        <is>
-          <t>2020-09-14 14:25:25</t>
-        </is>
+      <c r="H111" s="1" t="n">
+        <v>44088.6009837963</v>
       </c>
       <c r="I111" t="n">
         <v>2</v>
@@ -8512,10 +8310,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H112" t="inlineStr">
-        <is>
-          <t>2020-09-14 14:25:09</t>
-        </is>
+      <c r="H112" s="1" t="n">
+        <v>44088.60079861111</v>
       </c>
       <c r="I112" t="n">
         <v>1</v>
@@ -8591,10 +8387,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H113" t="inlineStr">
-        <is>
-          <t>2020-09-14 14:25:00</t>
-        </is>
+      <c r="H113" s="1" t="n">
+        <v>44088.60069444445</v>
       </c>
       <c r="I113" t="n">
         <v>1</v>
@@ -8662,10 +8456,8 @@
           <t>3491371826</t>
         </is>
       </c>
-      <c r="H114" t="inlineStr">
-        <is>
-          <t>2020-09-14 14:24:43</t>
-        </is>
+      <c r="H114" s="1" t="n">
+        <v>44088.60049768518</v>
       </c>
       <c r="I114" t="n">
         <v>5</v>
@@ -8733,10 +8525,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H115" t="inlineStr">
-        <is>
-          <t>2020-09-14 14:24:23</t>
-        </is>
+      <c r="H115" s="1" t="n">
+        <v>44088.60026620371</v>
       </c>
       <c r="I115" t="n">
         <v>47</v>
@@ -8804,10 +8594,8 @@
           <t>3491366955</t>
         </is>
       </c>
-      <c r="H116" t="inlineStr">
-        <is>
-          <t>2020-09-14 14:23:52</t>
-        </is>
+      <c r="H116" s="1" t="n">
+        <v>44088.59990740741</v>
       </c>
       <c r="I116" t="n">
         <v>0</v>
@@ -8883,10 +8671,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H117" t="inlineStr">
-        <is>
-          <t>2020-09-14 14:23:43</t>
-        </is>
+      <c r="H117" s="1" t="n">
+        <v>44088.59980324074</v>
       </c>
       <c r="I117" t="n">
         <v>37</v>
@@ -8954,10 +8740,8 @@
           <t>3491363196</t>
         </is>
       </c>
-      <c r="H118" t="inlineStr">
-        <is>
-          <t>2020-09-14 14:21:50</t>
-        </is>
+      <c r="H118" s="1" t="n">
+        <v>44088.59849537037</v>
       </c>
       <c r="I118" t="n">
         <v>40</v>
@@ -9033,10 +8817,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H119" t="inlineStr">
-        <is>
-          <t>2020-09-14 14:20:56</t>
-        </is>
+      <c r="H119" s="1" t="n">
+        <v>44088.59787037037</v>
       </c>
       <c r="I119" t="n">
         <v>1</v>
@@ -9112,10 +8894,8 @@
           <t>3491321925</t>
         </is>
       </c>
-      <c r="H120" t="inlineStr">
-        <is>
-          <t>2020-09-14 14:18:31</t>
-        </is>
+      <c r="H120" s="1" t="n">
+        <v>44088.59619212963</v>
       </c>
       <c r="I120" t="n">
         <v>5</v>
@@ -9179,10 +8959,8 @@
           <t>3491321925</t>
         </is>
       </c>
-      <c r="H121" t="inlineStr">
-        <is>
-          <t>2020-09-14 14:18:27</t>
-        </is>
+      <c r="H121" s="1" t="n">
+        <v>44088.59614583333</v>
       </c>
       <c r="I121" t="n">
         <v>2</v>
@@ -9250,10 +9028,8 @@
           <t>3491321925</t>
         </is>
       </c>
-      <c r="H122" t="inlineStr">
-        <is>
-          <t>2020-09-14 14:17:27</t>
-        </is>
+      <c r="H122" s="1" t="n">
+        <v>44088.59545138889</v>
       </c>
       <c r="I122" t="n">
         <v>1</v>
@@ -9329,10 +9105,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H123" t="inlineStr">
-        <is>
-          <t>2020-09-14 14:15:59</t>
-        </is>
+      <c r="H123" s="1" t="n">
+        <v>44088.59443287037</v>
       </c>
       <c r="I123" t="n">
         <v>0</v>
@@ -9400,10 +9174,8 @@
           <t>3491344574</t>
         </is>
       </c>
-      <c r="H124" t="inlineStr">
-        <is>
-          <t>2020-09-14 14:14:27</t>
-        </is>
+      <c r="H124" s="1" t="n">
+        <v>44088.59336805555</v>
       </c>
       <c r="I124" t="n">
         <v>2</v>
@@ -9479,10 +9251,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H125" t="inlineStr">
-        <is>
-          <t>2020-09-14 14:14:15</t>
-        </is>
+      <c r="H125" s="1" t="n">
+        <v>44088.59322916667</v>
       </c>
       <c r="I125" t="n">
         <v>0</v>
@@ -9558,10 +9328,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H126" t="inlineStr">
-        <is>
-          <t>2020-09-14 14:13:58</t>
-        </is>
+      <c r="H126" s="1" t="n">
+        <v>44088.59303240741</v>
       </c>
       <c r="I126" t="n">
         <v>0</v>
@@ -9629,10 +9397,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H127" t="inlineStr">
-        <is>
-          <t>2020-09-14 14:13:31</t>
-        </is>
+      <c r="H127" s="1" t="n">
+        <v>44088.59271990741</v>
       </c>
       <c r="I127" t="n">
         <v>0</v>
@@ -9704,10 +9470,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H128" t="inlineStr">
-        <is>
-          <t>2020-09-14 14:13:03</t>
-        </is>
+      <c r="H128" s="1" t="n">
+        <v>44088.59239583334</v>
       </c>
       <c r="I128" t="n">
         <v>0</v>
@@ -9775,10 +9539,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H129" t="inlineStr">
-        <is>
-          <t>2020-09-14 14:12:53</t>
-        </is>
+      <c r="H129" s="1" t="n">
+        <v>44088.59228009259</v>
       </c>
       <c r="I129" t="n">
         <v>0</v>
@@ -9850,10 +9612,8 @@
           <t>3491342851</t>
         </is>
       </c>
-      <c r="H130" t="inlineStr">
-        <is>
-          <t>2020-09-14 14:12:02</t>
-        </is>
+      <c r="H130" s="1" t="n">
+        <v>44088.59168981481</v>
       </c>
       <c r="I130" t="n">
         <v>16</v>
@@ -9921,10 +9681,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H131" t="inlineStr">
-        <is>
-          <t>2020-09-14 14:11:57</t>
-        </is>
+      <c r="H131" s="1" t="n">
+        <v>44088.59163194444</v>
       </c>
       <c r="I131" t="n">
         <v>10</v>
@@ -9996,10 +9754,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H132" t="inlineStr">
-        <is>
-          <t>2020-09-14 14:11:18</t>
-        </is>
+      <c r="H132" s="1" t="n">
+        <v>44088.59118055556</v>
       </c>
       <c r="I132" t="n">
         <v>1</v>
@@ -10071,10 +9827,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H133" t="inlineStr">
-        <is>
-          <t>2020-09-14 14:08:44</t>
-        </is>
+      <c r="H133" s="1" t="n">
+        <v>44088.58939814815</v>
       </c>
       <c r="I133" t="n">
         <v>2</v>
@@ -10138,10 +9892,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H134" t="inlineStr">
-        <is>
-          <t>2020-09-14 14:08:41</t>
-        </is>
+      <c r="H134" s="1" t="n">
+        <v>44088.58936342593</v>
       </c>
       <c r="I134" t="n">
         <v>0</v>
@@ -10205,10 +9957,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H135" t="inlineStr">
-        <is>
-          <t>2020-09-14 14:07:53</t>
-        </is>
+      <c r="H135" s="1" t="n">
+        <v>44088.58880787037</v>
       </c>
       <c r="I135" t="n">
         <v>0</v>
@@ -10276,10 +10026,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H136" t="inlineStr">
-        <is>
-          <t>2020-09-14 14:07:02</t>
-        </is>
+      <c r="H136" s="1" t="n">
+        <v>44088.58821759259</v>
       </c>
       <c r="I136" t="n">
         <v>1</v>
@@ -10351,10 +10099,8 @@
           <t>3491332881</t>
         </is>
       </c>
-      <c r="H137" t="inlineStr">
-        <is>
-          <t>2020-09-14 14:06:55</t>
-        </is>
+      <c r="H137" s="1" t="n">
+        <v>44088.58813657407</v>
       </c>
       <c r="I137" t="n">
         <v>0</v>
@@ -10418,10 +10164,8 @@
           <t>3491324663</t>
         </is>
       </c>
-      <c r="H138" t="inlineStr">
-        <is>
-          <t>2020-09-14 14:06:31</t>
-        </is>
+      <c r="H138" s="1" t="n">
+        <v>44088.58785879629</v>
       </c>
       <c r="I138" t="n">
         <v>1</v>
@@ -10485,10 +10229,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H139" t="inlineStr">
-        <is>
-          <t>2020-09-14 14:06:17</t>
-        </is>
+      <c r="H139" s="1" t="n">
+        <v>44088.58769675926</v>
       </c>
       <c r="I139" t="n">
         <v>0</v>
@@ -10560,10 +10302,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H140" t="inlineStr">
-        <is>
-          <t>2020-09-14 14:05:23</t>
-        </is>
+      <c r="H140" s="1" t="n">
+        <v>44088.58707175926</v>
       </c>
       <c r="I140" t="n">
         <v>0</v>
@@ -10627,10 +10367,8 @@
           <t>3491331780</t>
         </is>
       </c>
-      <c r="H141" t="inlineStr">
-        <is>
-          <t>2020-09-14 14:05:14</t>
-        </is>
+      <c r="H141" s="1" t="n">
+        <v>44088.58696759259</v>
       </c>
       <c r="I141" t="n">
         <v>2</v>
@@ -10702,10 +10440,8 @@
           <t>3491331678</t>
         </is>
       </c>
-      <c r="H142" t="inlineStr">
-        <is>
-          <t>2020-09-14 14:05:05</t>
-        </is>
+      <c r="H142" s="1" t="n">
+        <v>44088.58686342592</v>
       </c>
       <c r="I142" t="n">
         <v>0</v>
@@ -10765,10 +10501,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H143" t="inlineStr">
-        <is>
-          <t>2020-09-14 14:04:52</t>
-        </is>
+      <c r="H143" s="1" t="n">
+        <v>44088.58671296296</v>
       </c>
       <c r="I143" t="n">
         <v>3</v>
@@ -10836,10 +10570,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H144" t="inlineStr">
-        <is>
-          <t>2020-09-14 14:04:10</t>
-        </is>
+      <c r="H144" s="1" t="n">
+        <v>44088.58622685185</v>
       </c>
       <c r="I144" t="n">
         <v>84</v>
@@ -10911,10 +10643,8 @@
           <t>3491322816</t>
         </is>
       </c>
-      <c r="H145" t="inlineStr">
-        <is>
-          <t>2020-09-14 14:03:49</t>
-        </is>
+      <c r="H145" s="1" t="n">
+        <v>44088.5859837963</v>
       </c>
       <c r="I145" t="n">
         <v>2</v>
@@ -10986,10 +10716,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H146" t="inlineStr">
-        <is>
-          <t>2020-09-14 14:03:27</t>
-        </is>
+      <c r="H146" s="1" t="n">
+        <v>44088.58572916667</v>
       </c>
       <c r="I146" t="n">
         <v>0</v>
@@ -11057,10 +10785,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H147" t="inlineStr">
-        <is>
-          <t>2020-09-14 14:03:24</t>
-        </is>
+      <c r="H147" s="1" t="n">
+        <v>44088.58569444445</v>
       </c>
       <c r="I147" t="n">
         <v>0</v>
@@ -11128,10 +10854,8 @@
           <t>3491326780</t>
         </is>
       </c>
-      <c r="H148" t="inlineStr">
-        <is>
-          <t>2020-09-14 14:03:10</t>
-        </is>
+      <c r="H148" s="1" t="n">
+        <v>44088.58553240741</v>
       </c>
       <c r="I148" t="n">
         <v>16</v>
@@ -11207,10 +10931,8 @@
           <t>3491326711</t>
         </is>
       </c>
-      <c r="H149" t="inlineStr">
-        <is>
-          <t>2020-09-14 14:03:05</t>
-        </is>
+      <c r="H149" s="1" t="n">
+        <v>44088.58547453704</v>
       </c>
       <c r="I149" t="n">
         <v>8</v>
@@ -11286,10 +11008,8 @@
           <t>3491326415</t>
         </is>
       </c>
-      <c r="H150" t="inlineStr">
-        <is>
-          <t>2020-09-14 14:02:43</t>
-        </is>
+      <c r="H150" s="1" t="n">
+        <v>44088.58521990741</v>
       </c>
       <c r="I150" t="n">
         <v>1</v>
@@ -11357,10 +11077,8 @@
           <t>3491321925</t>
         </is>
       </c>
-      <c r="H151" t="inlineStr">
-        <is>
-          <t>2020-09-14 14:02:37</t>
-        </is>
+      <c r="H151" s="1" t="n">
+        <v>44088.58515046296</v>
       </c>
       <c r="I151" t="n">
         <v>22</v>
@@ -11428,10 +11146,8 @@
           <t>3491321814</t>
         </is>
       </c>
-      <c r="H152" t="inlineStr">
-        <is>
-          <t>2020-09-14 14:02:27</t>
-        </is>
+      <c r="H152" s="1" t="n">
+        <v>44088.58503472222</v>
       </c>
       <c r="I152" t="n">
         <v>1</v>
@@ -11495,10 +11211,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H153" t="inlineStr">
-        <is>
-          <t>2020-09-14 14:02:19</t>
-        </is>
+      <c r="H153" s="1" t="n">
+        <v>44088.58494212963</v>
       </c>
       <c r="I153" t="n">
         <v>0</v>
@@ -11566,10 +11280,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H154" t="inlineStr">
-        <is>
-          <t>2020-09-14 14:02:08</t>
-        </is>
+      <c r="H154" s="1" t="n">
+        <v>44088.58481481481</v>
       </c>
       <c r="I154" t="n">
         <v>0</v>
@@ -11629,10 +11341,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H155" t="inlineStr">
-        <is>
-          <t>2020-09-14 14:02:06</t>
-        </is>
+      <c r="H155" s="1" t="n">
+        <v>44088.58479166667</v>
       </c>
       <c r="I155" t="n">
         <v>0</v>
@@ -11704,10 +11414,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H156" t="inlineStr">
-        <is>
-          <t>2020-09-14 14:02:02</t>
-        </is>
+      <c r="H156" s="1" t="n">
+        <v>44088.58474537037</v>
       </c>
       <c r="I156" t="n">
         <v>175</v>
@@ -11780,10 +11488,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H157" t="inlineStr">
-        <is>
-          <t>2020-09-14 14:01:50</t>
-        </is>
+      <c r="H157" s="1" t="n">
+        <v>44088.58460648148</v>
       </c>
       <c r="I157" t="n">
         <v>0</v>
@@ -11851,10 +11557,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H158" t="inlineStr">
-        <is>
-          <t>2020-09-14 14:01:38</t>
-        </is>
+      <c r="H158" s="1" t="n">
+        <v>44088.58446759259</v>
       </c>
       <c r="I158" t="n">
         <v>1</v>
@@ -11930,10 +11634,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H159" t="inlineStr">
-        <is>
-          <t>2020-09-14 14:01:27</t>
-        </is>
+      <c r="H159" s="1" t="n">
+        <v>44088.58434027778</v>
       </c>
       <c r="I159" t="n">
         <v>0</v>
@@ -12001,10 +11703,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H160" t="inlineStr">
-        <is>
-          <t>2020-09-14 14:01:21</t>
-        </is>
+      <c r="H160" s="1" t="n">
+        <v>44088.58427083334</v>
       </c>
       <c r="I160" t="n">
         <v>7</v>
@@ -12080,10 +11780,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H161" t="inlineStr">
-        <is>
-          <t>2020-09-14 14:01:13</t>
-        </is>
+      <c r="H161" s="1" t="n">
+        <v>44088.58417824074</v>
       </c>
       <c r="I161" t="n">
         <v>31</v>
@@ -12155,10 +11853,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H162" t="inlineStr">
-        <is>
-          <t>2020-09-14 14:01:08</t>
-        </is>
+      <c r="H162" s="1" t="n">
+        <v>44088.58412037037</v>
       </c>
       <c r="I162" t="n">
         <v>299</v>
@@ -12226,10 +11922,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H163" t="inlineStr">
-        <is>
-          <t>2020-09-14 14:00:50</t>
-        </is>
+      <c r="H163" s="1" t="n">
+        <v>44088.58391203704</v>
       </c>
       <c r="I163" t="n">
         <v>1</v>
@@ -12305,10 +11999,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H164" t="inlineStr">
-        <is>
-          <t>2020-09-14 14:00:41</t>
-        </is>
+      <c r="H164" s="1" t="n">
+        <v>44088.58380787037</v>
       </c>
       <c r="I164" t="n">
         <v>0</v>
@@ -12373,10 +12065,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H165" t="inlineStr">
-        <is>
-          <t>2020-09-14 14:00:40</t>
-        </is>
+      <c r="H165" s="1" t="n">
+        <v>44088.5837962963</v>
       </c>
       <c r="I165" t="n">
         <v>1</v>
@@ -12452,10 +12142,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H166" t="inlineStr">
-        <is>
-          <t>2020-09-14 14:00:33</t>
-        </is>
+      <c r="H166" s="1" t="n">
+        <v>44088.58371527777</v>
       </c>
       <c r="I166" t="n">
         <v>1</v>
@@ -12531,10 +12219,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H167" t="inlineStr">
-        <is>
-          <t>2020-09-14 14:00:25</t>
-        </is>
+      <c r="H167" s="1" t="n">
+        <v>44088.58362268518</v>
       </c>
       <c r="I167" t="n">
         <v>1</v>
